--- a/documentation/Checklist.xlsx
+++ b/documentation/Checklist.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wallisch\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Software Enginieering 1 Labor\MTCG\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD684C8-2DA8-4EE9-AD10-72B3724B1846}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5134427-E0F1-41C1-B36C-71FAF10ECC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11124" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="1476" yWindow="-15912" windowWidth="23040" windowHeight="12072" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -598,43 +609,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C34"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -642,7 +653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -650,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -658,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -666,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -674,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
@@ -682,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
@@ -690,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
@@ -698,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -706,12 +717,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -722,12 +733,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
@@ -735,7 +746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
@@ -743,7 +754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
@@ -751,7 +762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
@@ -759,7 +770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
@@ -767,7 +778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
@@ -775,14 +786,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>24</v>
       </c>
@@ -790,7 +801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
@@ -798,7 +809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>26</v>
       </c>
@@ -806,7 +817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
@@ -814,7 +825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>28</v>
       </c>
@@ -822,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>29</v>
       </c>
@@ -830,7 +841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
@@ -839,14 +850,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>32</v>
       </c>
@@ -854,7 +865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>33</v>
       </c>
@@ -862,7 +873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>34</v>
       </c>
@@ -870,7 +881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>35</v>
       </c>
@@ -878,21 +889,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B44"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
@@ -900,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>38</v>
       </c>
@@ -908,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>39</v>
       </c>
@@ -916,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>40</v>
       </c>
@@ -924,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>41</v>
       </c>
@@ -932,7 +943,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>42</v>
       </c>
@@ -940,7 +951,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A54" s="2" t="s">
         <v>43</v>
       </c>
@@ -965,6 +976,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100495F7CC252815B47896F98900E10984C" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="afe1b3b164495dc81fdbcdcad6ec8b68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="207955a2-a3fc-4582-b2ea-e4c7d1fb6048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b6a42bf87c3f8727d31c248fc1697f6" ns2:_="">
     <xsd:import namespace="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
@@ -1096,35 +1122,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1146,9 +1147,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/Checklist.xlsx
+++ b/documentation/Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Software Enginieering 1 Labor\MTCG\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5134427-E0F1-41C1-B36C-71FAF10ECC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72A4B62-5854-428D-A817-E002B152F9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1476" yWindow="-15912" windowWidth="23040" windowHeight="12072" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="0" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -976,21 +976,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100495F7CC252815B47896F98900E10984C" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="afe1b3b164495dc81fdbcdcad6ec8b68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="207955a2-a3fc-4582-b2ea-e4c7d1fb6048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b6a42bf87c3f8727d31c248fc1697f6" ns2:_="">
     <xsd:import namespace="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
@@ -1122,10 +1107,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1147,19 +1157,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>